--- a/Java-Foundation/Java Content Pool.xlsx
+++ b/Java-Foundation/Java Content Pool.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hungchau/Documents/workspace/git/Java-Textbooks/Java-Foundation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ckhuit/Documents/workspace/git/Java-Textbooks/Java-Foundation/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14840" yWindow="460" windowWidth="23560" windowHeight="19580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="136">
   <si>
     <t>Book Chapter</t>
   </si>
@@ -353,6 +353,90 @@
   <si>
     <t>This contains object (Book)</t>
   </si>
+  <si>
+    <t>Writing Classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anatomy of a Class </t>
+  </si>
+  <si>
+    <t>chap. 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encapsulation </t>
+  </si>
+  <si>
+    <t>Accessors and Mutators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anatomy of a Method </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Static Class Members </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class Relationships </t>
+  </si>
+  <si>
+    <t>This reference</t>
+  </si>
+  <si>
+    <t>Textbook-This-Reference.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method Design </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method Decomposition </t>
+  </si>
+  <si>
+    <t>PigLatin.java</t>
+  </si>
+  <si>
+    <t>PigLatinTranslator.java</t>
+  </si>
+  <si>
+    <t>SnakeEyes.java, Die.java</t>
+  </si>
+  <si>
+    <t>CountFlips.java, Coin.java</t>
+  </si>
+  <si>
+    <t>177, 178</t>
+  </si>
+  <si>
+    <t>FlipRace.java, Coin.java</t>
+  </si>
+  <si>
+    <t>179, 178</t>
+  </si>
+  <si>
+    <t>Transactions.java, Account.java</t>
+  </si>
+  <si>
+    <t>182, 184</t>
+  </si>
+  <si>
+    <t>SloganCounter.java, Slogan.java</t>
+  </si>
+  <si>
+    <t>193, 194</t>
+  </si>
+  <si>
+    <t>RationalTester.java, RationalNumber.java</t>
+  </si>
+  <si>
+    <t>196, 198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method Overloading </t>
+  </si>
+  <si>
+    <t>211, 212, 213</t>
+  </si>
+  <si>
+    <t>ParameterTester.java, ParameterModifier.java, Num.java</t>
+  </si>
 </sst>
 </file>
 
@@ -399,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -421,6 +505,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -700,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF988"/>
+  <dimension ref="A1:AF982"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="164" zoomScaleNormal="164" zoomScalePageLayoutView="164" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="135" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -715,7 +802,7 @@
     <col min="5" max="5" width="10.33203125" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
     <col min="7" max="7" width="28.33203125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="74.83203125" customWidth="1"/>
+    <col min="8" max="8" width="39.1640625" customWidth="1"/>
     <col min="9" max="9" width="16.5" customWidth="1"/>
     <col min="10" max="10" width="17.83203125" customWidth="1"/>
     <col min="11" max="11" width="42.83203125" customWidth="1"/>
@@ -2598,351 +2685,503 @@
       <c r="AE39" s="7"/>
       <c r="AF39" s="7"/>
     </row>
-    <row r="40" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
+    <row r="40" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A40" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="4"/>
-      <c r="Z40" s="4"/>
-      <c r="AA40" s="4"/>
-      <c r="AB40" s="4"/>
-      <c r="AC40" s="4"/>
-      <c r="AD40" s="4"/>
-      <c r="AE40" s="4"/>
-      <c r="AF40" s="4"/>
-    </row>
-    <row r="41" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="4"/>
-      <c r="Z41" s="4"/>
-      <c r="AA41" s="4"/>
-      <c r="AB41" s="4"/>
-      <c r="AC41" s="4"/>
-      <c r="AD41" s="4"/>
-      <c r="AE41" s="4"/>
-      <c r="AF41" s="4"/>
-    </row>
-    <row r="42" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="4"/>
-      <c r="Z42" s="4"/>
-      <c r="AA42" s="4"/>
-      <c r="AB42" s="4"/>
-      <c r="AC42" s="4"/>
-      <c r="AD42" s="4"/>
-      <c r="AE42" s="4"/>
-      <c r="AF42" s="4"/>
-    </row>
-    <row r="43" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
+      <c r="D40" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F40" s="9">
+        <v>167168</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="7"/>
+      <c r="AC40" s="7"/>
+      <c r="AD40" s="7"/>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="7"/>
+    </row>
+    <row r="41" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A41" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="7"/>
+      <c r="AC41" s="7"/>
+      <c r="AD41" s="7"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="7"/>
+    </row>
+    <row r="42" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A42" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="7"/>
+      <c r="AC42" s="7"/>
+      <c r="AD42" s="7"/>
+      <c r="AE42" s="7"/>
+      <c r="AF42" s="7"/>
+    </row>
+    <row r="43" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A43" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="4"/>
-      <c r="W43" s="4"/>
-      <c r="X43" s="4"/>
-      <c r="Y43" s="4"/>
-      <c r="Z43" s="4"/>
-      <c r="AA43" s="4"/>
-      <c r="AB43" s="4"/>
-      <c r="AC43" s="4"/>
-      <c r="AD43" s="4"/>
-      <c r="AE43" s="4"/>
-      <c r="AF43" s="4"/>
-    </row>
-    <row r="44" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
+      <c r="D43" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
+      <c r="AA43" s="7"/>
+      <c r="AB43" s="7"/>
+      <c r="AC43" s="7"/>
+      <c r="AD43" s="7"/>
+      <c r="AE43" s="7"/>
+      <c r="AF43" s="7"/>
+    </row>
+    <row r="44" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A44" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
-      <c r="V44" s="4"/>
-      <c r="W44" s="4"/>
-      <c r="X44" s="4"/>
-      <c r="Y44" s="4"/>
-      <c r="Z44" s="4"/>
-      <c r="AA44" s="4"/>
-      <c r="AB44" s="4"/>
-      <c r="AC44" s="4"/>
-      <c r="AD44" s="4"/>
-      <c r="AE44" s="4"/>
-      <c r="AF44" s="4"/>
-    </row>
-    <row r="45" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
+      <c r="D44" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="7"/>
+      <c r="AA44" s="7"/>
+      <c r="AB44" s="7"/>
+      <c r="AC44" s="7"/>
+      <c r="AD44" s="7"/>
+      <c r="AE44" s="7"/>
+      <c r="AF44" s="7"/>
+    </row>
+    <row r="45" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A45" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="4"/>
-      <c r="U45" s="4"/>
-      <c r="V45" s="4"/>
-      <c r="W45" s="4"/>
-      <c r="X45" s="4"/>
-      <c r="Y45" s="4"/>
-      <c r="Z45" s="4"/>
-      <c r="AA45" s="4"/>
-      <c r="AB45" s="4"/>
-      <c r="AC45" s="4"/>
-      <c r="AD45" s="4"/>
-      <c r="AE45" s="4"/>
-      <c r="AF45" s="4"/>
-    </row>
-    <row r="46" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="4"/>
-      <c r="U46" s="4"/>
-      <c r="V46" s="4"/>
-      <c r="W46" s="4"/>
-      <c r="X46" s="4"/>
-      <c r="Y46" s="4"/>
-      <c r="Z46" s="4"/>
-      <c r="AA46" s="4"/>
-      <c r="AB46" s="4"/>
-      <c r="AC46" s="4"/>
-      <c r="AD46" s="4"/>
-      <c r="AE46" s="4"/>
-      <c r="AF46" s="4"/>
-    </row>
-    <row r="47" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4"/>
-      <c r="U47" s="4"/>
-      <c r="V47" s="4"/>
-      <c r="W47" s="4"/>
-      <c r="X47" s="4"/>
-      <c r="Y47" s="4"/>
-      <c r="Z47" s="4"/>
-      <c r="AA47" s="4"/>
-      <c r="AB47" s="4"/>
-      <c r="AC47" s="4"/>
-      <c r="AD47" s="4"/>
-      <c r="AE47" s="4"/>
-      <c r="AF47" s="4"/>
-    </row>
-    <row r="48" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="4"/>
-      <c r="U48" s="4"/>
-      <c r="V48" s="4"/>
-      <c r="W48" s="4"/>
-      <c r="X48" s="4"/>
-      <c r="Y48" s="4"/>
-      <c r="Z48" s="4"/>
-      <c r="AA48" s="4"/>
-      <c r="AB48" s="4"/>
-      <c r="AC48" s="4"/>
-      <c r="AD48" s="4"/>
-      <c r="AE48" s="4"/>
-      <c r="AF48" s="4"/>
-    </row>
-    <row r="49" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="4"/>
-      <c r="U49" s="4"/>
-      <c r="V49" s="4"/>
-      <c r="W49" s="4"/>
-      <c r="X49" s="4"/>
-      <c r="Y49" s="4"/>
-      <c r="Z49" s="4"/>
-      <c r="AA49" s="4"/>
-      <c r="AB49" s="4"/>
-      <c r="AC49" s="4"/>
-      <c r="AD49" s="4"/>
-      <c r="AE49" s="4"/>
-      <c r="AF49" s="4"/>
+      <c r="D45" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="7"/>
+      <c r="AA45" s="7"/>
+      <c r="AB45" s="7"/>
+      <c r="AC45" s="7"/>
+      <c r="AD45" s="7"/>
+      <c r="AE45" s="7"/>
+      <c r="AF45" s="7"/>
+    </row>
+    <row r="46" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A46" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F46" s="8">
+        <v>202</v>
+      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="7"/>
+      <c r="AB46" s="7"/>
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="7"/>
+      <c r="AE46" s="7"/>
+      <c r="AF46" s="7"/>
+    </row>
+    <row r="47" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A47" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F47" s="8">
+        <v>205</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="7"/>
+    </row>
+    <row r="48" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A48" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F48" s="8">
+        <v>207</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7"/>
+      <c r="AA48" s="7"/>
+      <c r="AB48" s="7"/>
+      <c r="AC48" s="7"/>
+      <c r="AD48" s="7"/>
+      <c r="AE48" s="7"/>
+      <c r="AF48" s="7"/>
+    </row>
+    <row r="49" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A49" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="7"/>
+      <c r="AA49" s="7"/>
+      <c r="AB49" s="7"/>
+      <c r="AC49" s="7"/>
+      <c r="AD49" s="7"/>
+      <c r="AE49" s="7"/>
+      <c r="AF49" s="7"/>
     </row>
     <row r="50" spans="1:32" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
+      <c r="D50" s="4"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="4"/>
@@ -2976,7 +3215,7 @@
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
+      <c r="D51" s="4"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="4"/>
@@ -3010,7 +3249,7 @@
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
+      <c r="D52" s="4"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="4"/>
@@ -3044,7 +3283,7 @@
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
+      <c r="D53" s="4"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="4"/>
@@ -34660,210 +34899,6 @@
       <c r="AE982" s="4"/>
       <c r="AF982" s="4"/>
     </row>
-    <row r="983" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A983" s="4"/>
-      <c r="B983" s="4"/>
-      <c r="C983" s="7"/>
-      <c r="D983" s="4"/>
-      <c r="E983" s="8"/>
-      <c r="F983" s="8"/>
-      <c r="G983" s="4"/>
-      <c r="H983" s="4"/>
-      <c r="I983" s="4"/>
-      <c r="J983" s="4"/>
-      <c r="K983" s="4"/>
-      <c r="L983" s="4"/>
-      <c r="M983" s="4"/>
-      <c r="N983" s="4"/>
-      <c r="O983" s="4"/>
-      <c r="P983" s="4"/>
-      <c r="Q983" s="4"/>
-      <c r="R983" s="4"/>
-      <c r="S983" s="4"/>
-      <c r="T983" s="4"/>
-      <c r="U983" s="4"/>
-      <c r="V983" s="4"/>
-      <c r="W983" s="4"/>
-      <c r="X983" s="4"/>
-      <c r="Y983" s="4"/>
-      <c r="Z983" s="4"/>
-      <c r="AA983" s="4"/>
-      <c r="AB983" s="4"/>
-      <c r="AC983" s="4"/>
-      <c r="AD983" s="4"/>
-      <c r="AE983" s="4"/>
-      <c r="AF983" s="4"/>
-    </row>
-    <row r="984" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A984" s="4"/>
-      <c r="B984" s="4"/>
-      <c r="C984" s="7"/>
-      <c r="D984" s="4"/>
-      <c r="E984" s="8"/>
-      <c r="F984" s="8"/>
-      <c r="G984" s="4"/>
-      <c r="H984" s="4"/>
-      <c r="I984" s="4"/>
-      <c r="J984" s="4"/>
-      <c r="K984" s="4"/>
-      <c r="L984" s="4"/>
-      <c r="M984" s="4"/>
-      <c r="N984" s="4"/>
-      <c r="O984" s="4"/>
-      <c r="P984" s="4"/>
-      <c r="Q984" s="4"/>
-      <c r="R984" s="4"/>
-      <c r="S984" s="4"/>
-      <c r="T984" s="4"/>
-      <c r="U984" s="4"/>
-      <c r="V984" s="4"/>
-      <c r="W984" s="4"/>
-      <c r="X984" s="4"/>
-      <c r="Y984" s="4"/>
-      <c r="Z984" s="4"/>
-      <c r="AA984" s="4"/>
-      <c r="AB984" s="4"/>
-      <c r="AC984" s="4"/>
-      <c r="AD984" s="4"/>
-      <c r="AE984" s="4"/>
-      <c r="AF984" s="4"/>
-    </row>
-    <row r="985" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A985" s="4"/>
-      <c r="B985" s="4"/>
-      <c r="C985" s="7"/>
-      <c r="D985" s="4"/>
-      <c r="E985" s="8"/>
-      <c r="F985" s="8"/>
-      <c r="G985" s="4"/>
-      <c r="H985" s="4"/>
-      <c r="I985" s="4"/>
-      <c r="J985" s="4"/>
-      <c r="K985" s="4"/>
-      <c r="L985" s="4"/>
-      <c r="M985" s="4"/>
-      <c r="N985" s="4"/>
-      <c r="O985" s="4"/>
-      <c r="P985" s="4"/>
-      <c r="Q985" s="4"/>
-      <c r="R985" s="4"/>
-      <c r="S985" s="4"/>
-      <c r="T985" s="4"/>
-      <c r="U985" s="4"/>
-      <c r="V985" s="4"/>
-      <c r="W985" s="4"/>
-      <c r="X985" s="4"/>
-      <c r="Y985" s="4"/>
-      <c r="Z985" s="4"/>
-      <c r="AA985" s="4"/>
-      <c r="AB985" s="4"/>
-      <c r="AC985" s="4"/>
-      <c r="AD985" s="4"/>
-      <c r="AE985" s="4"/>
-      <c r="AF985" s="4"/>
-    </row>
-    <row r="986" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A986" s="4"/>
-      <c r="B986" s="4"/>
-      <c r="C986" s="7"/>
-      <c r="D986" s="4"/>
-      <c r="E986" s="8"/>
-      <c r="F986" s="8"/>
-      <c r="G986" s="4"/>
-      <c r="H986" s="4"/>
-      <c r="I986" s="4"/>
-      <c r="J986" s="4"/>
-      <c r="K986" s="4"/>
-      <c r="L986" s="4"/>
-      <c r="M986" s="4"/>
-      <c r="N986" s="4"/>
-      <c r="O986" s="4"/>
-      <c r="P986" s="4"/>
-      <c r="Q986" s="4"/>
-      <c r="R986" s="4"/>
-      <c r="S986" s="4"/>
-      <c r="T986" s="4"/>
-      <c r="U986" s="4"/>
-      <c r="V986" s="4"/>
-      <c r="W986" s="4"/>
-      <c r="X986" s="4"/>
-      <c r="Y986" s="4"/>
-      <c r="Z986" s="4"/>
-      <c r="AA986" s="4"/>
-      <c r="AB986" s="4"/>
-      <c r="AC986" s="4"/>
-      <c r="AD986" s="4"/>
-      <c r="AE986" s="4"/>
-      <c r="AF986" s="4"/>
-    </row>
-    <row r="987" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A987" s="4"/>
-      <c r="B987" s="4"/>
-      <c r="C987" s="7"/>
-      <c r="D987" s="4"/>
-      <c r="E987" s="8"/>
-      <c r="F987" s="8"/>
-      <c r="G987" s="4"/>
-      <c r="H987" s="4"/>
-      <c r="I987" s="4"/>
-      <c r="J987" s="4"/>
-      <c r="K987" s="4"/>
-      <c r="L987" s="4"/>
-      <c r="M987" s="4"/>
-      <c r="N987" s="4"/>
-      <c r="O987" s="4"/>
-      <c r="P987" s="4"/>
-      <c r="Q987" s="4"/>
-      <c r="R987" s="4"/>
-      <c r="S987" s="4"/>
-      <c r="T987" s="4"/>
-      <c r="U987" s="4"/>
-      <c r="V987" s="4"/>
-      <c r="W987" s="4"/>
-      <c r="X987" s="4"/>
-      <c r="Y987" s="4"/>
-      <c r="Z987" s="4"/>
-      <c r="AA987" s="4"/>
-      <c r="AB987" s="4"/>
-      <c r="AC987" s="4"/>
-      <c r="AD987" s="4"/>
-      <c r="AE987" s="4"/>
-      <c r="AF987" s="4"/>
-    </row>
-    <row r="988" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A988" s="4"/>
-      <c r="B988" s="4"/>
-      <c r="C988" s="7"/>
-      <c r="D988" s="4"/>
-      <c r="E988" s="8"/>
-      <c r="F988" s="8"/>
-      <c r="G988" s="4"/>
-      <c r="H988" s="4"/>
-      <c r="I988" s="4"/>
-      <c r="J988" s="4"/>
-      <c r="K988" s="4"/>
-      <c r="L988" s="4"/>
-      <c r="M988" s="4"/>
-      <c r="N988" s="4"/>
-      <c r="O988" s="4"/>
-      <c r="P988" s="4"/>
-      <c r="Q988" s="4"/>
-      <c r="R988" s="4"/>
-      <c r="S988" s="4"/>
-      <c r="T988" s="4"/>
-      <c r="U988" s="4"/>
-      <c r="V988" s="4"/>
-      <c r="W988" s="4"/>
-      <c r="X988" s="4"/>
-      <c r="Y988" s="4"/>
-      <c r="Z988" s="4"/>
-      <c r="AA988" s="4"/>
-      <c r="AB988" s="4"/>
-      <c r="AC988" s="4"/>
-      <c r="AD988" s="4"/>
-      <c r="AE988" s="4"/>
-      <c r="AF988" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Java-Foundation/Java Content Pool.xlsx
+++ b/Java-Foundation/Java Content Pool.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="194">
   <si>
     <t>Book Chapter</t>
   </si>
@@ -437,6 +437,180 @@
   <si>
     <t>ParameterTester.java, ParameterModifier.java, Num.java</t>
   </si>
+  <si>
+    <t xml:space="preserve">GUI Elements </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graphical User Interfaces </t>
+  </si>
+  <si>
+    <t>chap. 6</t>
+  </si>
+  <si>
+    <t>PushCounter.java,  PushCounterPanel.java</t>
+  </si>
+  <si>
+    <t>236, 237</t>
+  </si>
+  <si>
+    <t>241, 242</t>
+  </si>
+  <si>
+    <t>LeftRight.java, LeftRightPanel.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More Components </t>
+  </si>
+  <si>
+    <t>Fahrenheit.java, FahrenheitPanel.java</t>
+  </si>
+  <si>
+    <t>244, 245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Boxes </t>
+  </si>
+  <si>
+    <t>StyleOptions.java, StyleOptionsPanel.java</t>
+  </si>
+  <si>
+    <t>248, 249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text Fields </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frames and Panels </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buttons and Action Events </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radio Buttons </t>
+  </si>
+  <si>
+    <t>251, 252</t>
+  </si>
+  <si>
+    <t>QuoteOptions.java, QuoteOptionsPanel.java</t>
+  </si>
+  <si>
+    <t>Sliders</t>
+  </si>
+  <si>
+    <t>SlideColor.java, SlideColorPanel.java</t>
+  </si>
+  <si>
+    <t>255, 257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combo Boxes </t>
+  </si>
+  <si>
+    <t>260, 262</t>
+  </si>
+  <si>
+    <t>JukeBox.java, JukeBoxControls.java</t>
+  </si>
+  <si>
+    <t>Timers</t>
+  </si>
+  <si>
+    <t>266, 267</t>
+  </si>
+  <si>
+    <t>Rebound.java, ReboundPanel.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layout Managers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow Layout </t>
+  </si>
+  <si>
+    <t>270, 272</t>
+  </si>
+  <si>
+    <t>LayoutDemo.java, IntroPanel.java</t>
+  </si>
+  <si>
+    <t>FlowPanel.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Border Layout </t>
+  </si>
+  <si>
+    <t>BorderPanel.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grid Layout </t>
+  </si>
+  <si>
+    <t>GridPanel.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Box Layout </t>
+  </si>
+  <si>
+    <t>BoxPanel.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mouse and Key Events </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mouse Events </t>
+  </si>
+  <si>
+    <t>286, 287</t>
+  </si>
+  <si>
+    <t>289, 290</t>
+  </si>
+  <si>
+    <t>RubberLines.java, RubberLinesPanel.java</t>
+  </si>
+  <si>
+    <t>Coordinates.java, CoordinatesPanel.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key Events </t>
+  </si>
+  <si>
+    <t>293, 294</t>
+  </si>
+  <si>
+    <t>Direction.java, DirectionPanel.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dialog Boxes </t>
+  </si>
+  <si>
+    <t>EvenOdd.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File Choosers </t>
+  </si>
+  <si>
+    <t>DisplayFile.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some Important Details </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borders </t>
+  </si>
+  <si>
+    <t>BorderDemo.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tool Tips and Mnemonics </t>
+  </si>
+  <si>
+    <t>LightBulb.java, LightBulbPanel.java, LightBulbControls.java</t>
+  </si>
+  <si>
+    <t>311, 312, 314</t>
+  </si>
 </sst>
 </file>
 
@@ -789,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF982"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="135" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="135" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1564,9 +1738,7 @@
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
@@ -1614,9 +1786,7 @@
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
@@ -1662,9 +1832,7 @@
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
@@ -1710,9 +1878,7 @@
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
@@ -1758,9 +1924,7 @@
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
-      <c r="K20" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
@@ -1808,9 +1972,7 @@
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
-      <c r="K21" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
@@ -1858,9 +2020,7 @@
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
@@ -1906,9 +2066,7 @@
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
@@ -1954,9 +2112,7 @@
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
-      <c r="K24" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
@@ -2708,9 +2864,7 @@
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
-      <c r="K40" s="7" t="s">
-        <v>107</v>
-      </c>
+      <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
@@ -2758,9 +2912,7 @@
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
-      <c r="K41" s="7" t="s">
-        <v>107</v>
-      </c>
+      <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
@@ -2808,9 +2960,7 @@
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
-      <c r="K42" s="7" t="s">
-        <v>107</v>
-      </c>
+      <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
@@ -2856,9 +3006,7 @@
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
-      <c r="K43" s="7" t="s">
-        <v>107</v>
-      </c>
+      <c r="K43" s="7"/>
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
@@ -2904,9 +3052,7 @@
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
-      <c r="K44" s="7" t="s">
-        <v>107</v>
-      </c>
+      <c r="K44" s="7"/>
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
@@ -2952,9 +3098,7 @@
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
-      <c r="K45" s="7" t="s">
-        <v>107</v>
-      </c>
+      <c r="K45" s="7"/>
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
@@ -3002,9 +3146,7 @@
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
-      <c r="K46" s="7" t="s">
-        <v>107</v>
-      </c>
+      <c r="K46" s="7"/>
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
@@ -3052,9 +3194,7 @@
       </c>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
-      <c r="K47" s="7" t="s">
-        <v>107</v>
-      </c>
+      <c r="K47" s="7"/>
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
@@ -3102,9 +3242,7 @@
       </c>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
-      <c r="K48" s="7" t="s">
-        <v>107</v>
-      </c>
+      <c r="K48" s="7"/>
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
@@ -3152,9 +3290,7 @@
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
-      <c r="K49" s="7" t="s">
-        <v>107</v>
-      </c>
+      <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
@@ -3177,685 +3313,961 @@
       <c r="AE49" s="7"/>
       <c r="AF49" s="7"/>
     </row>
-    <row r="50" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="4"/>
-      <c r="S50" s="4"/>
-      <c r="T50" s="4"/>
-      <c r="U50" s="4"/>
-      <c r="V50" s="4"/>
-      <c r="W50" s="4"/>
-      <c r="X50" s="4"/>
-      <c r="Y50" s="4"/>
-      <c r="Z50" s="4"/>
-      <c r="AA50" s="4"/>
-      <c r="AB50" s="4"/>
-      <c r="AC50" s="4"/>
-      <c r="AD50" s="4"/>
-      <c r="AE50" s="4"/>
-      <c r="AF50" s="4"/>
-    </row>
-    <row r="51" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="4"/>
-      <c r="U51" s="4"/>
-      <c r="V51" s="4"/>
-      <c r="W51" s="4"/>
-      <c r="X51" s="4"/>
-      <c r="Y51" s="4"/>
-      <c r="Z51" s="4"/>
-      <c r="AA51" s="4"/>
-      <c r="AB51" s="4"/>
-      <c r="AC51" s="4"/>
-      <c r="AD51" s="4"/>
-      <c r="AE51" s="4"/>
-      <c r="AF51" s="4"/>
-    </row>
-    <row r="52" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="4"/>
-      <c r="U52" s="4"/>
-      <c r="V52" s="4"/>
-      <c r="W52" s="4"/>
-      <c r="X52" s="4"/>
-      <c r="Y52" s="4"/>
-      <c r="Z52" s="4"/>
-      <c r="AA52" s="4"/>
-      <c r="AB52" s="4"/>
-      <c r="AC52" s="4"/>
-      <c r="AD52" s="4"/>
-      <c r="AE52" s="4"/>
-      <c r="AF52" s="4"/>
-    </row>
-    <row r="53" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="4"/>
-      <c r="S53" s="4"/>
-      <c r="T53" s="4"/>
-      <c r="U53" s="4"/>
-      <c r="V53" s="4"/>
-      <c r="W53" s="4"/>
-      <c r="X53" s="4"/>
-      <c r="Y53" s="4"/>
-      <c r="Z53" s="4"/>
-      <c r="AA53" s="4"/>
-      <c r="AB53" s="4"/>
-      <c r="AC53" s="4"/>
-      <c r="AD53" s="4"/>
-      <c r="AE53" s="4"/>
-      <c r="AF53" s="4"/>
-    </row>
-    <row r="54" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
-      <c r="S54" s="4"/>
-      <c r="T54" s="4"/>
-      <c r="U54" s="4"/>
-      <c r="V54" s="4"/>
-      <c r="W54" s="4"/>
-      <c r="X54" s="4"/>
-      <c r="Y54" s="4"/>
-      <c r="Z54" s="4"/>
-      <c r="AA54" s="4"/>
-      <c r="AB54" s="4"/>
-      <c r="AC54" s="4"/>
-      <c r="AD54" s="4"/>
-      <c r="AE54" s="4"/>
-      <c r="AF54" s="4"/>
-    </row>
-    <row r="55" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="4"/>
-      <c r="S55" s="4"/>
-      <c r="T55" s="4"/>
-      <c r="U55" s="4"/>
-      <c r="V55" s="4"/>
-      <c r="W55" s="4"/>
-      <c r="X55" s="4"/>
-      <c r="Y55" s="4"/>
-      <c r="Z55" s="4"/>
-      <c r="AA55" s="4"/>
-      <c r="AB55" s="4"/>
-      <c r="AC55" s="4"/>
-      <c r="AD55" s="4"/>
-      <c r="AE55" s="4"/>
-      <c r="AF55" s="4"/>
-    </row>
-    <row r="56" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="4"/>
-      <c r="U56" s="4"/>
-      <c r="V56" s="4"/>
-      <c r="W56" s="4"/>
-      <c r="X56" s="4"/>
-      <c r="Y56" s="4"/>
-      <c r="Z56" s="4"/>
-      <c r="AA56" s="4"/>
-      <c r="AB56" s="4"/>
-      <c r="AC56" s="4"/>
-      <c r="AD56" s="4"/>
-      <c r="AE56" s="4"/>
-      <c r="AF56" s="4"/>
-    </row>
-    <row r="57" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
-      <c r="S57" s="4"/>
-      <c r="T57" s="4"/>
-      <c r="U57" s="4"/>
-      <c r="V57" s="4"/>
-      <c r="W57" s="4"/>
-      <c r="X57" s="4"/>
-      <c r="Y57" s="4"/>
-      <c r="Z57" s="4"/>
-      <c r="AA57" s="4"/>
-      <c r="AB57" s="4"/>
-      <c r="AC57" s="4"/>
-      <c r="AD57" s="4"/>
-      <c r="AE57" s="4"/>
-      <c r="AF57" s="4"/>
-    </row>
-    <row r="58" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
+    <row r="50" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A50" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="7"/>
+      <c r="AA50" s="7"/>
+      <c r="AB50" s="7"/>
+      <c r="AC50" s="7"/>
+      <c r="AD50" s="7"/>
+      <c r="AE50" s="7"/>
+      <c r="AF50" s="7"/>
+    </row>
+    <row r="51" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A51" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="7"/>
+      <c r="AA51" s="7"/>
+      <c r="AB51" s="7"/>
+      <c r="AC51" s="7"/>
+      <c r="AD51" s="7"/>
+      <c r="AE51" s="7"/>
+      <c r="AF51" s="7"/>
+    </row>
+    <row r="52" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A52" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="7"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="7"/>
+      <c r="AA52" s="7"/>
+      <c r="AB52" s="7"/>
+      <c r="AC52" s="7"/>
+      <c r="AD52" s="7"/>
+      <c r="AE52" s="7"/>
+      <c r="AF52" s="7"/>
+    </row>
+    <row r="53" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A53" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="7"/>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="7"/>
+      <c r="AA53" s="7"/>
+      <c r="AB53" s="7"/>
+      <c r="AC53" s="7"/>
+      <c r="AD53" s="7"/>
+      <c r="AE53" s="7"/>
+      <c r="AF53" s="7"/>
+    </row>
+    <row r="54" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A54" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="7"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="7"/>
+      <c r="AB54" s="7"/>
+      <c r="AC54" s="7"/>
+      <c r="AD54" s="7"/>
+      <c r="AE54" s="7"/>
+      <c r="AF54" s="7"/>
+    </row>
+    <row r="55" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A55" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="7"/>
+      <c r="Y55" s="7"/>
+      <c r="Z55" s="7"/>
+      <c r="AA55" s="7"/>
+      <c r="AB55" s="7"/>
+      <c r="AC55" s="7"/>
+      <c r="AD55" s="7"/>
+      <c r="AE55" s="7"/>
+      <c r="AF55" s="7"/>
+    </row>
+    <row r="56" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A56" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="7"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="7"/>
+      <c r="Y56" s="7"/>
+      <c r="Z56" s="7"/>
+      <c r="AA56" s="7"/>
+      <c r="AB56" s="7"/>
+      <c r="AC56" s="7"/>
+      <c r="AD56" s="7"/>
+      <c r="AE56" s="7"/>
+      <c r="AF56" s="7"/>
+    </row>
+    <row r="57" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A57" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+      <c r="W57" s="7"/>
+      <c r="X57" s="7"/>
+      <c r="Y57" s="7"/>
+      <c r="Z57" s="7"/>
+      <c r="AA57" s="7"/>
+      <c r="AB57" s="7"/>
+      <c r="AC57" s="7"/>
+      <c r="AD57" s="7"/>
+      <c r="AE57" s="7"/>
+      <c r="AF57" s="7"/>
+    </row>
+    <row r="58" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A58" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>164</v>
+      </c>
       <c r="C58" s="7"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
-      <c r="S58" s="4"/>
-      <c r="T58" s="4"/>
-      <c r="U58" s="4"/>
-      <c r="V58" s="4"/>
-      <c r="W58" s="4"/>
-      <c r="X58" s="4"/>
-      <c r="Y58" s="4"/>
-      <c r="Z58" s="4"/>
-      <c r="AA58" s="4"/>
-      <c r="AB58" s="4"/>
-      <c r="AC58" s="4"/>
-      <c r="AD58" s="4"/>
-      <c r="AE58" s="4"/>
-      <c r="AF58" s="4"/>
-    </row>
-    <row r="59" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
-      <c r="S59" s="4"/>
-      <c r="T59" s="4"/>
-      <c r="U59" s="4"/>
-      <c r="V59" s="4"/>
-      <c r="W59" s="4"/>
-      <c r="X59" s="4"/>
-      <c r="Y59" s="4"/>
-      <c r="Z59" s="4"/>
-      <c r="AA59" s="4"/>
-      <c r="AB59" s="4"/>
-      <c r="AC59" s="4"/>
-      <c r="AD59" s="4"/>
-      <c r="AE59" s="4"/>
-      <c r="AF59" s="4"/>
-    </row>
-    <row r="60" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
-      <c r="S60" s="4"/>
-      <c r="T60" s="4"/>
-      <c r="U60" s="4"/>
-      <c r="V60" s="4"/>
-      <c r="W60" s="4"/>
-      <c r="X60" s="4"/>
-      <c r="Y60" s="4"/>
-      <c r="Z60" s="4"/>
-      <c r="AA60" s="4"/>
-      <c r="AB60" s="4"/>
-      <c r="AC60" s="4"/>
-      <c r="AD60" s="4"/>
-      <c r="AE60" s="4"/>
-      <c r="AF60" s="4"/>
-    </row>
-    <row r="61" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="4"/>
-      <c r="R61" s="4"/>
-      <c r="S61" s="4"/>
-      <c r="T61" s="4"/>
-      <c r="U61" s="4"/>
-      <c r="V61" s="4"/>
-      <c r="W61" s="4"/>
-      <c r="X61" s="4"/>
-      <c r="Y61" s="4"/>
-      <c r="Z61" s="4"/>
-      <c r="AA61" s="4"/>
-      <c r="AB61" s="4"/>
-      <c r="AC61" s="4"/>
-      <c r="AD61" s="4"/>
-      <c r="AE61" s="4"/>
-      <c r="AF61" s="4"/>
-    </row>
-    <row r="62" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="4"/>
-      <c r="R62" s="4"/>
-      <c r="S62" s="4"/>
-      <c r="T62" s="4"/>
-      <c r="U62" s="4"/>
-      <c r="V62" s="4"/>
-      <c r="W62" s="4"/>
-      <c r="X62" s="4"/>
-      <c r="Y62" s="4"/>
-      <c r="Z62" s="4"/>
-      <c r="AA62" s="4"/>
-      <c r="AB62" s="4"/>
-      <c r="AC62" s="4"/>
-      <c r="AD62" s="4"/>
-      <c r="AE62" s="4"/>
-      <c r="AF62" s="4"/>
-    </row>
-    <row r="63" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4"/>
-      <c r="R63" s="4"/>
-      <c r="S63" s="4"/>
-      <c r="T63" s="4"/>
-      <c r="U63" s="4"/>
-      <c r="V63" s="4"/>
-      <c r="W63" s="4"/>
-      <c r="X63" s="4"/>
-      <c r="Y63" s="4"/>
-      <c r="Z63" s="4"/>
-      <c r="AA63" s="4"/>
-      <c r="AB63" s="4"/>
-      <c r="AC63" s="4"/>
-      <c r="AD63" s="4"/>
-      <c r="AE63" s="4"/>
-      <c r="AF63" s="4"/>
-    </row>
-    <row r="64" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="4"/>
-      <c r="R64" s="4"/>
-      <c r="S64" s="4"/>
-      <c r="T64" s="4"/>
-      <c r="U64" s="4"/>
-      <c r="V64" s="4"/>
-      <c r="W64" s="4"/>
-      <c r="X64" s="4"/>
-      <c r="Y64" s="4"/>
-      <c r="Z64" s="4"/>
-      <c r="AA64" s="4"/>
-      <c r="AB64" s="4"/>
-      <c r="AC64" s="4"/>
-      <c r="AD64" s="4"/>
-      <c r="AE64" s="4"/>
-      <c r="AF64" s="4"/>
-    </row>
-    <row r="65" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4"/>
-      <c r="Q65" s="4"/>
-      <c r="R65" s="4"/>
-      <c r="S65" s="4"/>
-      <c r="T65" s="4"/>
-      <c r="U65" s="4"/>
-      <c r="V65" s="4"/>
-      <c r="W65" s="4"/>
-      <c r="X65" s="4"/>
-      <c r="Y65" s="4"/>
-      <c r="Z65" s="4"/>
-      <c r="AA65" s="4"/>
-      <c r="AB65" s="4"/>
-      <c r="AC65" s="4"/>
-      <c r="AD65" s="4"/>
-      <c r="AE65" s="4"/>
-      <c r="AF65" s="4"/>
-    </row>
-    <row r="66" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
+      <c r="D58" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="7"/>
+      <c r="W58" s="7"/>
+      <c r="X58" s="7"/>
+      <c r="Y58" s="7"/>
+      <c r="Z58" s="7"/>
+      <c r="AA58" s="7"/>
+      <c r="AB58" s="7"/>
+      <c r="AC58" s="7"/>
+      <c r="AD58" s="7"/>
+      <c r="AE58" s="7"/>
+      <c r="AF58" s="7"/>
+    </row>
+    <row r="59" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A59" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F59" s="8">
+        <v>274</v>
+      </c>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="7"/>
+      <c r="X59" s="7"/>
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="7"/>
+      <c r="AA59" s="7"/>
+      <c r="AB59" s="7"/>
+      <c r="AC59" s="7"/>
+      <c r="AD59" s="7"/>
+      <c r="AE59" s="7"/>
+      <c r="AF59" s="7"/>
+    </row>
+    <row r="60" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A60" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F60" s="8">
+        <v>276</v>
+      </c>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="7"/>
+      <c r="V60" s="7"/>
+      <c r="W60" s="7"/>
+      <c r="X60" s="7"/>
+      <c r="Y60" s="7"/>
+      <c r="Z60" s="7"/>
+      <c r="AA60" s="7"/>
+      <c r="AB60" s="7"/>
+      <c r="AC60" s="7"/>
+      <c r="AD60" s="7"/>
+      <c r="AE60" s="7"/>
+      <c r="AF60" s="7"/>
+    </row>
+    <row r="61" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A61" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F61" s="8">
+        <v>278</v>
+      </c>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="7"/>
+      <c r="V61" s="7"/>
+      <c r="W61" s="7"/>
+      <c r="X61" s="7"/>
+      <c r="Y61" s="7"/>
+      <c r="Z61" s="7"/>
+      <c r="AA61" s="7"/>
+      <c r="AB61" s="7"/>
+      <c r="AC61" s="7"/>
+      <c r="AD61" s="7"/>
+      <c r="AE61" s="7"/>
+      <c r="AF61" s="7"/>
+    </row>
+    <row r="62" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A62" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F62" s="8">
+        <v>282</v>
+      </c>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="7"/>
+      <c r="V62" s="7"/>
+      <c r="W62" s="7"/>
+      <c r="X62" s="7"/>
+      <c r="Y62" s="7"/>
+      <c r="Z62" s="7"/>
+      <c r="AA62" s="7"/>
+      <c r="AB62" s="7"/>
+      <c r="AC62" s="7"/>
+      <c r="AD62" s="7"/>
+      <c r="AE62" s="7"/>
+      <c r="AF62" s="7"/>
+    </row>
+    <row r="63" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A63" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7"/>
+      <c r="S63" s="7"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="7"/>
+      <c r="V63" s="7"/>
+      <c r="W63" s="7"/>
+      <c r="X63" s="7"/>
+      <c r="Y63" s="7"/>
+      <c r="Z63" s="7"/>
+      <c r="AA63" s="7"/>
+      <c r="AB63" s="7"/>
+      <c r="AC63" s="7"/>
+      <c r="AD63" s="7"/>
+      <c r="AE63" s="7"/>
+      <c r="AF63" s="7"/>
+    </row>
+    <row r="64" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A64" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="7"/>
+      <c r="T64" s="7"/>
+      <c r="U64" s="7"/>
+      <c r="V64" s="7"/>
+      <c r="W64" s="7"/>
+      <c r="X64" s="7"/>
+      <c r="Y64" s="7"/>
+      <c r="Z64" s="7"/>
+      <c r="AA64" s="7"/>
+      <c r="AB64" s="7"/>
+      <c r="AC64" s="7"/>
+      <c r="AD64" s="7"/>
+      <c r="AE64" s="7"/>
+      <c r="AF64" s="7"/>
+    </row>
+    <row r="65" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A65" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="7"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="7"/>
+      <c r="Y65" s="7"/>
+      <c r="Z65" s="7"/>
+      <c r="AA65" s="7"/>
+      <c r="AB65" s="7"/>
+      <c r="AC65" s="7"/>
+      <c r="AD65" s="7"/>
+      <c r="AE65" s="7"/>
+      <c r="AF65" s="7"/>
+    </row>
+    <row r="66" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A66" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>184</v>
+      </c>
       <c r="C66" s="7"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
-      <c r="P66" s="4"/>
-      <c r="Q66" s="4"/>
-      <c r="R66" s="4"/>
-      <c r="S66" s="4"/>
-      <c r="T66" s="4"/>
-      <c r="U66" s="4"/>
-      <c r="V66" s="4"/>
-      <c r="W66" s="4"/>
-      <c r="X66" s="4"/>
-      <c r="Y66" s="4"/>
-      <c r="Z66" s="4"/>
-      <c r="AA66" s="4"/>
-      <c r="AB66" s="4"/>
-      <c r="AC66" s="4"/>
-      <c r="AD66" s="4"/>
-      <c r="AE66" s="4"/>
-      <c r="AF66" s="4"/>
-    </row>
-    <row r="67" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4"/>
-      <c r="O67" s="4"/>
-      <c r="P67" s="4"/>
-      <c r="Q67" s="4"/>
-      <c r="R67" s="4"/>
-      <c r="S67" s="4"/>
-      <c r="T67" s="4"/>
-      <c r="U67" s="4"/>
-      <c r="V67" s="4"/>
-      <c r="W67" s="4"/>
-      <c r="X67" s="4"/>
-      <c r="Y67" s="4"/>
-      <c r="Z67" s="4"/>
-      <c r="AA67" s="4"/>
-      <c r="AB67" s="4"/>
-      <c r="AC67" s="4"/>
-      <c r="AD67" s="4"/>
-      <c r="AE67" s="4"/>
-      <c r="AF67" s="4"/>
-    </row>
-    <row r="68" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4"/>
-      <c r="O68" s="4"/>
-      <c r="P68" s="4"/>
-      <c r="Q68" s="4"/>
-      <c r="R68" s="4"/>
-      <c r="S68" s="4"/>
-      <c r="T68" s="4"/>
-      <c r="U68" s="4"/>
-      <c r="V68" s="4"/>
-      <c r="W68" s="4"/>
-      <c r="X68" s="4"/>
-      <c r="Y68" s="4"/>
-      <c r="Z68" s="4"/>
-      <c r="AA68" s="4"/>
-      <c r="AB68" s="4"/>
-      <c r="AC68" s="4"/>
-      <c r="AD68" s="4"/>
-      <c r="AE68" s="4"/>
-      <c r="AF68" s="4"/>
-    </row>
-    <row r="69" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="4"/>
-      <c r="R69" s="4"/>
-      <c r="S69" s="4"/>
-      <c r="T69" s="4"/>
-      <c r="U69" s="4"/>
-      <c r="V69" s="4"/>
-      <c r="W69" s="4"/>
-      <c r="X69" s="4"/>
-      <c r="Y69" s="4"/>
-      <c r="Z69" s="4"/>
-      <c r="AA69" s="4"/>
-      <c r="AB69" s="4"/>
-      <c r="AC69" s="4"/>
-      <c r="AD69" s="4"/>
-      <c r="AE69" s="4"/>
-      <c r="AF69" s="4"/>
+      <c r="D66" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F66" s="8">
+        <v>299</v>
+      </c>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="7"/>
+      <c r="V66" s="7"/>
+      <c r="W66" s="7"/>
+      <c r="X66" s="7"/>
+      <c r="Y66" s="7"/>
+      <c r="Z66" s="7"/>
+      <c r="AA66" s="7"/>
+      <c r="AB66" s="7"/>
+      <c r="AC66" s="7"/>
+      <c r="AD66" s="7"/>
+      <c r="AE66" s="7"/>
+      <c r="AF66" s="7"/>
+    </row>
+    <row r="67" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A67" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F67" s="8">
+        <v>302</v>
+      </c>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="7"/>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7"/>
+      <c r="V67" s="7"/>
+      <c r="W67" s="7"/>
+      <c r="X67" s="7"/>
+      <c r="Y67" s="7"/>
+      <c r="Z67" s="7"/>
+      <c r="AA67" s="7"/>
+      <c r="AB67" s="7"/>
+      <c r="AC67" s="7"/>
+      <c r="AD67" s="7"/>
+      <c r="AE67" s="7"/>
+      <c r="AF67" s="7"/>
+    </row>
+    <row r="68" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A68" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F68" s="8">
+        <v>305</v>
+      </c>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="7"/>
+      <c r="T68" s="7"/>
+      <c r="U68" s="7"/>
+      <c r="V68" s="7"/>
+      <c r="W68" s="7"/>
+      <c r="X68" s="7"/>
+      <c r="Y68" s="7"/>
+      <c r="Z68" s="7"/>
+      <c r="AA68" s="7"/>
+      <c r="AB68" s="7"/>
+      <c r="AC68" s="7"/>
+      <c r="AD68" s="7"/>
+      <c r="AE68" s="7"/>
+      <c r="AF68" s="7"/>
+    </row>
+    <row r="69" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A69" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="7"/>
+      <c r="W69" s="7"/>
+      <c r="X69" s="7"/>
+      <c r="Y69" s="7"/>
+      <c r="Z69" s="7"/>
+      <c r="AA69" s="7"/>
+      <c r="AB69" s="7"/>
+      <c r="AC69" s="7"/>
+      <c r="AD69" s="7"/>
+      <c r="AE69" s="7"/>
+      <c r="AF69" s="7"/>
     </row>
     <row r="70" spans="1:32" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>

--- a/Java-Foundation/Java Content Pool.xlsx
+++ b/Java-Foundation/Java Content Pool.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="262">
   <si>
     <t>Book Chapter</t>
   </si>
@@ -611,6 +611,210 @@
   <si>
     <t>311, 312, 314</t>
   </si>
+  <si>
+    <t xml:space="preserve">Declaring and Using Arrays </t>
+  </si>
+  <si>
+    <t>Arrays</t>
+  </si>
+  <si>
+    <t>chap. 7</t>
+  </si>
+  <si>
+    <t>BasicArray.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bounds Checking </t>
+  </si>
+  <si>
+    <t>ReverseOrder.java</t>
+  </si>
+  <si>
+    <t>LetterCount.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initializer Lists </t>
+  </si>
+  <si>
+    <t>Primes.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrays of Objects </t>
+  </si>
+  <si>
+    <t>339, 340</t>
+  </si>
+  <si>
+    <t>GradeRange.java, Grade.java</t>
+  </si>
+  <si>
+    <t>Tunes.java, CDCollection.java, CD.java</t>
+  </si>
+  <si>
+    <t>341, 343, 345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Command-Line Arguments </t>
+  </si>
+  <si>
+    <t>CommandLine.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable-Length Parameter Lists </t>
+  </si>
+  <si>
+    <t>VariableParameters.java, Family.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two-Dimensional Arrays </t>
+  </si>
+  <si>
+    <t>TwoDArray.java</t>
+  </si>
+  <si>
+    <t>SodaSurvey.java</t>
+  </si>
+  <si>
+    <t>Inheritance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating Subclasses </t>
+  </si>
+  <si>
+    <t>Words.java, Book.java, Dictionary.java</t>
+  </si>
+  <si>
+    <t>366, 367, 368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The super Reference </t>
+  </si>
+  <si>
+    <t>371, 372, 373</t>
+  </si>
+  <si>
+    <t>Words2.java, Book2.java, Dictionary2.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overriding Methods </t>
+  </si>
+  <si>
+    <t>375, 376</t>
+  </si>
+  <si>
+    <t>Messages.java, Thought.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class Hierarchies </t>
+  </si>
+  <si>
+    <t>376, 377</t>
+  </si>
+  <si>
+    <t>Thought.java, Advice.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visibility </t>
+  </si>
+  <si>
+    <t>382, 383, 384</t>
+  </si>
+  <si>
+    <t>FoodAnalyzer.java, FoodItem.java, Pizza.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polymorphism </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polymorphism via Inheritance </t>
+  </si>
+  <si>
+    <t>Firm.java, Staff.java, StaffMember.java, Volunteer.java, Employee.java, Executive.java, Hourly.java</t>
+  </si>
+  <si>
+    <t>398, 399, 401, 402,  403, 405, 406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interfaces </t>
+  </si>
+  <si>
+    <t>408, 408, 411</t>
+  </si>
+  <si>
+    <t>Encryptable.java, Secret.java, SecretTest.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exceptions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uncaught Exceptions </t>
+  </si>
+  <si>
+    <t>Zero.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The try-catch Statement </t>
+  </si>
+  <si>
+    <t>ProductCodes.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exception Propagation </t>
+  </si>
+  <si>
+    <t>Propagation.java, ExceptionScope.java</t>
+  </si>
+  <si>
+    <t>431, 432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Exception Class Hierarchy </t>
+  </si>
+  <si>
+    <t>chap. 8</t>
+  </si>
+  <si>
+    <t>chap. 9</t>
+  </si>
+  <si>
+    <t>chap. 10</t>
+  </si>
+  <si>
+    <t>chap. 11</t>
+  </si>
+  <si>
+    <t>435, 436</t>
+  </si>
+  <si>
+    <t>CreatingExceptions.java, OutOfRangeException.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I/O Exceptions </t>
+  </si>
+  <si>
+    <t>TestData.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recursion </t>
+  </si>
+  <si>
+    <t>Using Recursion</t>
+  </si>
+  <si>
+    <t>454, 456</t>
+  </si>
+  <si>
+    <t>MazeSearch.java, Maze.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traversing a Maze </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Towers of Hanoi </t>
+  </si>
+  <si>
+    <t>SolveTowers.java, TowersOfHanoi.java</t>
+  </si>
 </sst>
 </file>
 
@@ -963,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF982"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="135" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="135" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -974,9 +1178,9 @@
     <col min="3" max="3" width="15.1640625" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" customWidth="1"/>
     <col min="7" max="7" width="28.33203125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="39.1640625" customWidth="1"/>
+    <col min="8" max="8" width="42.1640625" customWidth="1"/>
     <col min="9" max="9" width="16.5" customWidth="1"/>
     <col min="10" max="10" width="17.83203125" customWidth="1"/>
     <col min="11" max="11" width="42.83203125" customWidth="1"/>
@@ -4269,821 +4473,1121 @@
       <c r="AE69" s="7"/>
       <c r="AF69" s="7"/>
     </row>
-    <row r="70" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
+    <row r="70" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A70" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>194</v>
+      </c>
       <c r="C70" s="7"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
-      <c r="P70" s="4"/>
-      <c r="Q70" s="4"/>
-      <c r="R70" s="4"/>
-      <c r="S70" s="4"/>
-      <c r="T70" s="4"/>
-      <c r="U70" s="4"/>
-      <c r="V70" s="4"/>
-      <c r="W70" s="4"/>
-      <c r="X70" s="4"/>
-      <c r="Y70" s="4"/>
-      <c r="Z70" s="4"/>
-      <c r="AA70" s="4"/>
-      <c r="AB70" s="4"/>
-      <c r="AC70" s="4"/>
-      <c r="AD70" s="4"/>
-      <c r="AE70" s="4"/>
-      <c r="AF70" s="4"/>
-    </row>
-    <row r="71" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
-      <c r="O71" s="4"/>
-      <c r="P71" s="4"/>
-      <c r="Q71" s="4"/>
-      <c r="R71" s="4"/>
-      <c r="S71" s="4"/>
-      <c r="T71" s="4"/>
-      <c r="U71" s="4"/>
-      <c r="V71" s="4"/>
-      <c r="W71" s="4"/>
-      <c r="X71" s="4"/>
-      <c r="Y71" s="4"/>
-      <c r="Z71" s="4"/>
-      <c r="AA71" s="4"/>
-      <c r="AB71" s="4"/>
-      <c r="AC71" s="4"/>
-      <c r="AD71" s="4"/>
-      <c r="AE71" s="4"/>
-      <c r="AF71" s="4"/>
-    </row>
-    <row r="72" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
-      <c r="O72" s="4"/>
-      <c r="P72" s="4"/>
-      <c r="Q72" s="4"/>
-      <c r="R72" s="4"/>
-      <c r="S72" s="4"/>
-      <c r="T72" s="4"/>
-      <c r="U72" s="4"/>
-      <c r="V72" s="4"/>
-      <c r="W72" s="4"/>
-      <c r="X72" s="4"/>
-      <c r="Y72" s="4"/>
-      <c r="Z72" s="4"/>
-      <c r="AA72" s="4"/>
-      <c r="AB72" s="4"/>
-      <c r="AC72" s="4"/>
-      <c r="AD72" s="4"/>
-      <c r="AE72" s="4"/>
-      <c r="AF72" s="4"/>
-    </row>
-    <row r="73" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
-      <c r="O73" s="4"/>
-      <c r="P73" s="4"/>
-      <c r="Q73" s="4"/>
-      <c r="R73" s="4"/>
-      <c r="S73" s="4"/>
-      <c r="T73" s="4"/>
-      <c r="U73" s="4"/>
-      <c r="V73" s="4"/>
-      <c r="W73" s="4"/>
-      <c r="X73" s="4"/>
-      <c r="Y73" s="4"/>
-      <c r="Z73" s="4"/>
-      <c r="AA73" s="4"/>
-      <c r="AB73" s="4"/>
-      <c r="AC73" s="4"/>
-      <c r="AD73" s="4"/>
-      <c r="AE73" s="4"/>
-      <c r="AF73" s="4"/>
-    </row>
-    <row r="74" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
+      <c r="D70" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F70" s="8">
+        <v>328</v>
+      </c>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="7"/>
+      <c r="R70" s="7"/>
+      <c r="S70" s="7"/>
+      <c r="T70" s="7"/>
+      <c r="U70" s="7"/>
+      <c r="V70" s="7"/>
+      <c r="W70" s="7"/>
+      <c r="X70" s="7"/>
+      <c r="Y70" s="7"/>
+      <c r="Z70" s="7"/>
+      <c r="AA70" s="7"/>
+      <c r="AB70" s="7"/>
+      <c r="AC70" s="7"/>
+      <c r="AD70" s="7"/>
+      <c r="AE70" s="7"/>
+      <c r="AF70" s="7"/>
+    </row>
+    <row r="71" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A71" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F71" s="8">
+        <v>330</v>
+      </c>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7"/>
+      <c r="S71" s="7"/>
+      <c r="T71" s="7"/>
+      <c r="U71" s="7"/>
+      <c r="V71" s="7"/>
+      <c r="W71" s="7"/>
+      <c r="X71" s="7"/>
+      <c r="Y71" s="7"/>
+      <c r="Z71" s="7"/>
+      <c r="AA71" s="7"/>
+      <c r="AB71" s="7"/>
+      <c r="AC71" s="7"/>
+      <c r="AD71" s="7"/>
+      <c r="AE71" s="7"/>
+      <c r="AF71" s="7"/>
+    </row>
+    <row r="72" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A72" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F72" s="8">
+        <v>332</v>
+      </c>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="7"/>
+      <c r="S72" s="7"/>
+      <c r="T72" s="7"/>
+      <c r="U72" s="7"/>
+      <c r="V72" s="7"/>
+      <c r="W72" s="7"/>
+      <c r="X72" s="7"/>
+      <c r="Y72" s="7"/>
+      <c r="Z72" s="7"/>
+      <c r="AA72" s="7"/>
+      <c r="AB72" s="7"/>
+      <c r="AC72" s="7"/>
+      <c r="AD72" s="7"/>
+      <c r="AE72" s="7"/>
+      <c r="AF72" s="7"/>
+    </row>
+    <row r="73" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A73" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F73" s="8">
+        <v>335</v>
+      </c>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="7"/>
+      <c r="S73" s="7"/>
+      <c r="T73" s="7"/>
+      <c r="U73" s="7"/>
+      <c r="V73" s="7"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="7"/>
+      <c r="Y73" s="7"/>
+      <c r="Z73" s="7"/>
+      <c r="AA73" s="7"/>
+      <c r="AB73" s="7"/>
+      <c r="AC73" s="7"/>
+      <c r="AD73" s="7"/>
+      <c r="AE73" s="7"/>
+      <c r="AF73" s="7"/>
+    </row>
+    <row r="74" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A74" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>203</v>
+      </c>
       <c r="C74" s="7"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4"/>
-      <c r="O74" s="4"/>
-      <c r="P74" s="4"/>
-      <c r="Q74" s="4"/>
-      <c r="R74" s="4"/>
-      <c r="S74" s="4"/>
-      <c r="T74" s="4"/>
-      <c r="U74" s="4"/>
-      <c r="V74" s="4"/>
-      <c r="W74" s="4"/>
-      <c r="X74" s="4"/>
-      <c r="Y74" s="4"/>
-      <c r="Z74" s="4"/>
-      <c r="AA74" s="4"/>
-      <c r="AB74" s="4"/>
-      <c r="AC74" s="4"/>
-      <c r="AD74" s="4"/>
-      <c r="AE74" s="4"/>
-      <c r="AF74" s="4"/>
-    </row>
-    <row r="75" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
+      <c r="D74" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="7"/>
+      <c r="S74" s="7"/>
+      <c r="T74" s="7"/>
+      <c r="U74" s="7"/>
+      <c r="V74" s="7"/>
+      <c r="W74" s="7"/>
+      <c r="X74" s="7"/>
+      <c r="Y74" s="7"/>
+      <c r="Z74" s="7"/>
+      <c r="AA74" s="7"/>
+      <c r="AB74" s="7"/>
+      <c r="AC74" s="7"/>
+      <c r="AD74" s="7"/>
+      <c r="AE74" s="7"/>
+      <c r="AF74" s="7"/>
+    </row>
+    <row r="75" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A75" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>203</v>
+      </c>
       <c r="C75" s="7"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4"/>
-      <c r="O75" s="4"/>
-      <c r="P75" s="4"/>
-      <c r="Q75" s="4"/>
-      <c r="R75" s="4"/>
-      <c r="S75" s="4"/>
-      <c r="T75" s="4"/>
-      <c r="U75" s="4"/>
-      <c r="V75" s="4"/>
-      <c r="W75" s="4"/>
-      <c r="X75" s="4"/>
-      <c r="Y75" s="4"/>
-      <c r="Z75" s="4"/>
-      <c r="AA75" s="4"/>
-      <c r="AB75" s="4"/>
-      <c r="AC75" s="4"/>
-      <c r="AD75" s="4"/>
-      <c r="AE75" s="4"/>
-      <c r="AF75" s="4"/>
-    </row>
-    <row r="76" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
+      <c r="D75" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
+      <c r="V75" s="7"/>
+      <c r="W75" s="7"/>
+      <c r="X75" s="7"/>
+      <c r="Y75" s="7"/>
+      <c r="Z75" s="7"/>
+      <c r="AA75" s="7"/>
+      <c r="AB75" s="7"/>
+      <c r="AC75" s="7"/>
+      <c r="AD75" s="7"/>
+      <c r="AE75" s="7"/>
+      <c r="AF75" s="7"/>
+    </row>
+    <row r="76" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A76" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>208</v>
+      </c>
       <c r="C76" s="7"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
-      <c r="O76" s="4"/>
-      <c r="P76" s="4"/>
-      <c r="Q76" s="4"/>
-      <c r="R76" s="4"/>
-      <c r="S76" s="4"/>
-      <c r="T76" s="4"/>
-      <c r="U76" s="4"/>
-      <c r="V76" s="4"/>
-      <c r="W76" s="4"/>
-      <c r="X76" s="4"/>
-      <c r="Y76" s="4"/>
-      <c r="Z76" s="4"/>
-      <c r="AA76" s="4"/>
-      <c r="AB76" s="4"/>
-      <c r="AC76" s="4"/>
-      <c r="AD76" s="4"/>
-      <c r="AE76" s="4"/>
-      <c r="AF76" s="4"/>
-    </row>
-    <row r="77" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
+      <c r="D76" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F76" s="8">
+        <v>347</v>
+      </c>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
+      <c r="Q76" s="7"/>
+      <c r="R76" s="7"/>
+      <c r="S76" s="7"/>
+      <c r="T76" s="7"/>
+      <c r="U76" s="7"/>
+      <c r="V76" s="7"/>
+      <c r="W76" s="7"/>
+      <c r="X76" s="7"/>
+      <c r="Y76" s="7"/>
+      <c r="Z76" s="7"/>
+      <c r="AA76" s="7"/>
+      <c r="AB76" s="7"/>
+      <c r="AC76" s="7"/>
+      <c r="AD76" s="7"/>
+      <c r="AE76" s="7"/>
+      <c r="AF76" s="7"/>
+    </row>
+    <row r="77" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A77" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>210</v>
+      </c>
       <c r="C77" s="7"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4"/>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4"/>
-      <c r="Q77" s="4"/>
-      <c r="R77" s="4"/>
-      <c r="S77" s="4"/>
-      <c r="T77" s="4"/>
-      <c r="U77" s="4"/>
-      <c r="V77" s="4"/>
-      <c r="W77" s="4"/>
-      <c r="X77" s="4"/>
-      <c r="Y77" s="4"/>
-      <c r="Z77" s="4"/>
-      <c r="AA77" s="4"/>
-      <c r="AB77" s="4"/>
-      <c r="AC77" s="4"/>
-      <c r="AD77" s="4"/>
-      <c r="AE77" s="4"/>
-      <c r="AF77" s="4"/>
-    </row>
-    <row r="78" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
+      <c r="D77" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F77" s="8">
+        <v>350</v>
+      </c>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="7"/>
+      <c r="R77" s="7"/>
+      <c r="S77" s="7"/>
+      <c r="T77" s="7"/>
+      <c r="U77" s="7"/>
+      <c r="V77" s="7"/>
+      <c r="W77" s="7"/>
+      <c r="X77" s="7"/>
+      <c r="Y77" s="7"/>
+      <c r="Z77" s="7"/>
+      <c r="AA77" s="7"/>
+      <c r="AB77" s="7"/>
+      <c r="AC77" s="7"/>
+      <c r="AD77" s="7"/>
+      <c r="AE77" s="7"/>
+      <c r="AF77" s="7"/>
+    </row>
+    <row r="78" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A78" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>212</v>
+      </c>
       <c r="C78" s="7"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
-      <c r="O78" s="4"/>
-      <c r="P78" s="4"/>
-      <c r="Q78" s="4"/>
-      <c r="R78" s="4"/>
-      <c r="S78" s="4"/>
-      <c r="T78" s="4"/>
-      <c r="U78" s="4"/>
-      <c r="V78" s="4"/>
-      <c r="W78" s="4"/>
-      <c r="X78" s="4"/>
-      <c r="Y78" s="4"/>
-      <c r="Z78" s="4"/>
-      <c r="AA78" s="4"/>
-      <c r="AB78" s="4"/>
-      <c r="AC78" s="4"/>
-      <c r="AD78" s="4"/>
-      <c r="AE78" s="4"/>
-      <c r="AF78" s="4"/>
-    </row>
-    <row r="79" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
+      <c r="D78" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F78" s="8">
+        <v>353</v>
+      </c>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="7"/>
+      <c r="R78" s="7"/>
+      <c r="S78" s="7"/>
+      <c r="T78" s="7"/>
+      <c r="U78" s="7"/>
+      <c r="V78" s="7"/>
+      <c r="W78" s="7"/>
+      <c r="X78" s="7"/>
+      <c r="Y78" s="7"/>
+      <c r="Z78" s="7"/>
+      <c r="AA78" s="7"/>
+      <c r="AB78" s="7"/>
+      <c r="AC78" s="7"/>
+      <c r="AD78" s="7"/>
+      <c r="AE78" s="7"/>
+      <c r="AF78" s="7"/>
+    </row>
+    <row r="79" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A79" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>212</v>
+      </c>
       <c r="C79" s="7"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4"/>
-      <c r="O79" s="4"/>
-      <c r="P79" s="4"/>
-      <c r="Q79" s="4"/>
-      <c r="R79" s="4"/>
-      <c r="S79" s="4"/>
-      <c r="T79" s="4"/>
-      <c r="U79" s="4"/>
-      <c r="V79" s="4"/>
-      <c r="W79" s="4"/>
-      <c r="X79" s="4"/>
-      <c r="Y79" s="4"/>
-      <c r="Z79" s="4"/>
-      <c r="AA79" s="4"/>
-      <c r="AB79" s="4"/>
-      <c r="AC79" s="4"/>
-      <c r="AD79" s="4"/>
-      <c r="AE79" s="4"/>
-      <c r="AF79" s="4"/>
-    </row>
-    <row r="80" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
+      <c r="D79" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F79" s="8">
+        <v>354</v>
+      </c>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7"/>
+      <c r="S79" s="7"/>
+      <c r="T79" s="7"/>
+      <c r="U79" s="7"/>
+      <c r="V79" s="7"/>
+      <c r="W79" s="7"/>
+      <c r="X79" s="7"/>
+      <c r="Y79" s="7"/>
+      <c r="Z79" s="7"/>
+      <c r="AA79" s="7"/>
+      <c r="AB79" s="7"/>
+      <c r="AC79" s="7"/>
+      <c r="AD79" s="7"/>
+      <c r="AE79" s="7"/>
+      <c r="AF79" s="7"/>
+    </row>
+    <row r="80" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A80" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>216</v>
+      </c>
       <c r="C80" s="7"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
-      <c r="O80" s="4"/>
-      <c r="P80" s="4"/>
-      <c r="Q80" s="4"/>
-      <c r="R80" s="4"/>
-      <c r="S80" s="4"/>
-      <c r="T80" s="4"/>
-      <c r="U80" s="4"/>
-      <c r="V80" s="4"/>
-      <c r="W80" s="4"/>
-      <c r="X80" s="4"/>
-      <c r="Y80" s="4"/>
-      <c r="Z80" s="4"/>
-      <c r="AA80" s="4"/>
-      <c r="AB80" s="4"/>
-      <c r="AC80" s="4"/>
-      <c r="AD80" s="4"/>
-      <c r="AE80" s="4"/>
-      <c r="AF80" s="4"/>
-    </row>
-    <row r="81" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
-      <c r="O81" s="4"/>
-      <c r="P81" s="4"/>
-      <c r="Q81" s="4"/>
-      <c r="R81" s="4"/>
-      <c r="S81" s="4"/>
-      <c r="T81" s="4"/>
-      <c r="U81" s="4"/>
-      <c r="V81" s="4"/>
-      <c r="W81" s="4"/>
-      <c r="X81" s="4"/>
-      <c r="Y81" s="4"/>
-      <c r="Z81" s="4"/>
-      <c r="AA81" s="4"/>
-      <c r="AB81" s="4"/>
-      <c r="AC81" s="4"/>
-      <c r="AD81" s="4"/>
-      <c r="AE81" s="4"/>
-      <c r="AF81" s="4"/>
-    </row>
-    <row r="82" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
+      <c r="D80" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="7"/>
+      <c r="Q80" s="7"/>
+      <c r="R80" s="7"/>
+      <c r="S80" s="7"/>
+      <c r="T80" s="7"/>
+      <c r="U80" s="7"/>
+      <c r="V80" s="7"/>
+      <c r="W80" s="7"/>
+      <c r="X80" s="7"/>
+      <c r="Y80" s="7"/>
+      <c r="Z80" s="7"/>
+      <c r="AA80" s="7"/>
+      <c r="AB80" s="7"/>
+      <c r="AC80" s="7"/>
+      <c r="AD80" s="7"/>
+      <c r="AE80" s="7"/>
+      <c r="AF80" s="7"/>
+    </row>
+    <row r="81" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A81" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="7"/>
+      <c r="P81" s="7"/>
+      <c r="Q81" s="7"/>
+      <c r="R81" s="7"/>
+      <c r="S81" s="7"/>
+      <c r="T81" s="7"/>
+      <c r="U81" s="7"/>
+      <c r="V81" s="7"/>
+      <c r="W81" s="7"/>
+      <c r="X81" s="7"/>
+      <c r="Y81" s="7"/>
+      <c r="Z81" s="7"/>
+      <c r="AA81" s="7"/>
+      <c r="AB81" s="7"/>
+      <c r="AC81" s="7"/>
+      <c r="AD81" s="7"/>
+      <c r="AE81" s="7"/>
+      <c r="AF81" s="7"/>
+    </row>
+    <row r="82" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A82" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>222</v>
+      </c>
       <c r="C82" s="7"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
-      <c r="R82" s="4"/>
-      <c r="S82" s="4"/>
-      <c r="T82" s="4"/>
-      <c r="U82" s="4"/>
-      <c r="V82" s="4"/>
-      <c r="W82" s="4"/>
-      <c r="X82" s="4"/>
-      <c r="Y82" s="4"/>
-      <c r="Z82" s="4"/>
-      <c r="AA82" s="4"/>
-      <c r="AB82" s="4"/>
-      <c r="AC82" s="4"/>
-      <c r="AD82" s="4"/>
-      <c r="AE82" s="4"/>
-      <c r="AF82" s="4"/>
-    </row>
-    <row r="83" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
+      <c r="D82" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="7"/>
+      <c r="P82" s="7"/>
+      <c r="Q82" s="7"/>
+      <c r="R82" s="7"/>
+      <c r="S82" s="7"/>
+      <c r="T82" s="7"/>
+      <c r="U82" s="7"/>
+      <c r="V82" s="7"/>
+      <c r="W82" s="7"/>
+      <c r="X82" s="7"/>
+      <c r="Y82" s="7"/>
+      <c r="Z82" s="7"/>
+      <c r="AA82" s="7"/>
+      <c r="AB82" s="7"/>
+      <c r="AC82" s="7"/>
+      <c r="AD82" s="7"/>
+      <c r="AE82" s="7"/>
+      <c r="AF82" s="7"/>
+    </row>
+    <row r="83" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A83" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>225</v>
+      </c>
       <c r="C83" s="7"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
-      <c r="O83" s="4"/>
-      <c r="P83" s="4"/>
-      <c r="Q83" s="4"/>
-      <c r="R83" s="4"/>
-      <c r="S83" s="4"/>
-      <c r="T83" s="4"/>
-      <c r="U83" s="4"/>
-      <c r="V83" s="4"/>
-      <c r="W83" s="4"/>
-      <c r="X83" s="4"/>
-      <c r="Y83" s="4"/>
-      <c r="Z83" s="4"/>
-      <c r="AA83" s="4"/>
-      <c r="AB83" s="4"/>
-      <c r="AC83" s="4"/>
-      <c r="AD83" s="4"/>
-      <c r="AE83" s="4"/>
-      <c r="AF83" s="4"/>
-    </row>
-    <row r="84" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
+      <c r="D83" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="7"/>
+      <c r="P83" s="7"/>
+      <c r="Q83" s="7"/>
+      <c r="R83" s="7"/>
+      <c r="S83" s="7"/>
+      <c r="T83" s="7"/>
+      <c r="U83" s="7"/>
+      <c r="V83" s="7"/>
+      <c r="W83" s="7"/>
+      <c r="X83" s="7"/>
+      <c r="Y83" s="7"/>
+      <c r="Z83" s="7"/>
+      <c r="AA83" s="7"/>
+      <c r="AB83" s="7"/>
+      <c r="AC83" s="7"/>
+      <c r="AD83" s="7"/>
+      <c r="AE83" s="7"/>
+      <c r="AF83" s="7"/>
+    </row>
+    <row r="84" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A84" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>228</v>
+      </c>
       <c r="C84" s="7"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
-      <c r="N84" s="4"/>
-      <c r="O84" s="4"/>
-      <c r="P84" s="4"/>
-      <c r="Q84" s="4"/>
-      <c r="R84" s="4"/>
-      <c r="S84" s="4"/>
-      <c r="T84" s="4"/>
-      <c r="U84" s="4"/>
-      <c r="V84" s="4"/>
-      <c r="W84" s="4"/>
-      <c r="X84" s="4"/>
-      <c r="Y84" s="4"/>
-      <c r="Z84" s="4"/>
-      <c r="AA84" s="4"/>
-      <c r="AB84" s="4"/>
-      <c r="AC84" s="4"/>
-      <c r="AD84" s="4"/>
-      <c r="AE84" s="4"/>
-      <c r="AF84" s="4"/>
-    </row>
-    <row r="85" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
+      <c r="D84" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="7"/>
+      <c r="Q84" s="7"/>
+      <c r="R84" s="7"/>
+      <c r="S84" s="7"/>
+      <c r="T84" s="7"/>
+      <c r="U84" s="7"/>
+      <c r="V84" s="7"/>
+      <c r="W84" s="7"/>
+      <c r="X84" s="7"/>
+      <c r="Y84" s="7"/>
+      <c r="Z84" s="7"/>
+      <c r="AA84" s="7"/>
+      <c r="AB84" s="7"/>
+      <c r="AC84" s="7"/>
+      <c r="AD84" s="7"/>
+      <c r="AE84" s="7"/>
+      <c r="AF84" s="7"/>
+    </row>
+    <row r="85" spans="1:32" ht="52" x14ac:dyDescent="0.15">
+      <c r="A85" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>232</v>
+      </c>
       <c r="C85" s="7"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
-      <c r="O85" s="4"/>
-      <c r="P85" s="4"/>
-      <c r="Q85" s="4"/>
-      <c r="R85" s="4"/>
-      <c r="S85" s="4"/>
-      <c r="T85" s="4"/>
-      <c r="U85" s="4"/>
-      <c r="V85" s="4"/>
-      <c r="W85" s="4"/>
-      <c r="X85" s="4"/>
-      <c r="Y85" s="4"/>
-      <c r="Z85" s="4"/>
-      <c r="AA85" s="4"/>
-      <c r="AB85" s="4"/>
-      <c r="AC85" s="4"/>
-      <c r="AD85" s="4"/>
-      <c r="AE85" s="4"/>
-      <c r="AF85" s="4"/>
-    </row>
-    <row r="86" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
+      <c r="D85" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7"/>
+      <c r="P85" s="7"/>
+      <c r="Q85" s="7"/>
+      <c r="R85" s="7"/>
+      <c r="S85" s="7"/>
+      <c r="T85" s="7"/>
+      <c r="U85" s="7"/>
+      <c r="V85" s="7"/>
+      <c r="W85" s="7"/>
+      <c r="X85" s="7"/>
+      <c r="Y85" s="7"/>
+      <c r="Z85" s="7"/>
+      <c r="AA85" s="7"/>
+      <c r="AB85" s="7"/>
+      <c r="AC85" s="7"/>
+      <c r="AD85" s="7"/>
+      <c r="AE85" s="7"/>
+      <c r="AF85" s="7"/>
+    </row>
+    <row r="86" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A86" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>235</v>
+      </c>
       <c r="C86" s="7"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
-      <c r="M86" s="4"/>
-      <c r="N86" s="4"/>
-      <c r="O86" s="4"/>
-      <c r="P86" s="4"/>
-      <c r="Q86" s="4"/>
-      <c r="R86" s="4"/>
-      <c r="S86" s="4"/>
-      <c r="T86" s="4"/>
-      <c r="U86" s="4"/>
-      <c r="V86" s="4"/>
-      <c r="W86" s="4"/>
-      <c r="X86" s="4"/>
-      <c r="Y86" s="4"/>
-      <c r="Z86" s="4"/>
-      <c r="AA86" s="4"/>
-      <c r="AB86" s="4"/>
-      <c r="AC86" s="4"/>
-      <c r="AD86" s="4"/>
-      <c r="AE86" s="4"/>
-      <c r="AF86" s="4"/>
-    </row>
-    <row r="87" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
+      <c r="D86" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="7"/>
+      <c r="T86" s="7"/>
+      <c r="U86" s="7"/>
+      <c r="V86" s="7"/>
+      <c r="W86" s="7"/>
+      <c r="X86" s="7"/>
+      <c r="Y86" s="7"/>
+      <c r="Z86" s="7"/>
+      <c r="AA86" s="7"/>
+      <c r="AB86" s="7"/>
+      <c r="AC86" s="7"/>
+      <c r="AD86" s="7"/>
+      <c r="AE86" s="7"/>
+      <c r="AF86" s="7"/>
+    </row>
+    <row r="87" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A87" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>239</v>
+      </c>
       <c r="C87" s="7"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
-      <c r="O87" s="4"/>
-      <c r="P87" s="4"/>
-      <c r="Q87" s="4"/>
-      <c r="R87" s="4"/>
-      <c r="S87" s="4"/>
-      <c r="T87" s="4"/>
-      <c r="U87" s="4"/>
-      <c r="V87" s="4"/>
-      <c r="W87" s="4"/>
-      <c r="X87" s="4"/>
-      <c r="Y87" s="4"/>
-      <c r="Z87" s="4"/>
-      <c r="AA87" s="4"/>
-      <c r="AB87" s="4"/>
-      <c r="AC87" s="4"/>
-      <c r="AD87" s="4"/>
-      <c r="AE87" s="4"/>
-      <c r="AF87" s="4"/>
-    </row>
-    <row r="88" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
+      <c r="D87" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F87" s="8">
+        <v>426</v>
+      </c>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="7"/>
+      <c r="O87" s="7"/>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="7"/>
+      <c r="R87" s="7"/>
+      <c r="S87" s="7"/>
+      <c r="T87" s="7"/>
+      <c r="U87" s="7"/>
+      <c r="V87" s="7"/>
+      <c r="W87" s="7"/>
+      <c r="X87" s="7"/>
+      <c r="Y87" s="7"/>
+      <c r="Z87" s="7"/>
+      <c r="AA87" s="7"/>
+      <c r="AB87" s="7"/>
+      <c r="AC87" s="7"/>
+      <c r="AD87" s="7"/>
+      <c r="AE87" s="7"/>
+      <c r="AF87" s="7"/>
+    </row>
+    <row r="88" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A88" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>241</v>
+      </c>
       <c r="C88" s="7"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
-      <c r="N88" s="4"/>
-      <c r="O88" s="4"/>
-      <c r="P88" s="4"/>
-      <c r="Q88" s="4"/>
-      <c r="R88" s="4"/>
-      <c r="S88" s="4"/>
-      <c r="T88" s="4"/>
-      <c r="U88" s="4"/>
-      <c r="V88" s="4"/>
-      <c r="W88" s="4"/>
-      <c r="X88" s="4"/>
-      <c r="Y88" s="4"/>
-      <c r="Z88" s="4"/>
-      <c r="AA88" s="4"/>
-      <c r="AB88" s="4"/>
-      <c r="AC88" s="4"/>
-      <c r="AD88" s="4"/>
-      <c r="AE88" s="4"/>
-      <c r="AF88" s="4"/>
-    </row>
-    <row r="89" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
+      <c r="D88" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F88" s="8">
+        <v>428</v>
+      </c>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="7"/>
+      <c r="P88" s="7"/>
+      <c r="Q88" s="7"/>
+      <c r="R88" s="7"/>
+      <c r="S88" s="7"/>
+      <c r="T88" s="7"/>
+      <c r="U88" s="7"/>
+      <c r="V88" s="7"/>
+      <c r="W88" s="7"/>
+      <c r="X88" s="7"/>
+      <c r="Y88" s="7"/>
+      <c r="Z88" s="7"/>
+      <c r="AA88" s="7"/>
+      <c r="AB88" s="7"/>
+      <c r="AC88" s="7"/>
+      <c r="AD88" s="7"/>
+      <c r="AE88" s="7"/>
+      <c r="AF88" s="7"/>
+    </row>
+    <row r="89" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A89" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>243</v>
+      </c>
       <c r="C89" s="7"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-      <c r="M89" s="4"/>
-      <c r="N89" s="4"/>
-      <c r="O89" s="4"/>
-      <c r="P89" s="4"/>
-      <c r="Q89" s="4"/>
-      <c r="R89" s="4"/>
-      <c r="S89" s="4"/>
-      <c r="T89" s="4"/>
-      <c r="U89" s="4"/>
-      <c r="V89" s="4"/>
-      <c r="W89" s="4"/>
-      <c r="X89" s="4"/>
-      <c r="Y89" s="4"/>
-      <c r="Z89" s="4"/>
-      <c r="AA89" s="4"/>
-      <c r="AB89" s="4"/>
-      <c r="AC89" s="4"/>
-      <c r="AD89" s="4"/>
-      <c r="AE89" s="4"/>
-      <c r="AF89" s="4"/>
-    </row>
-    <row r="90" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
+      <c r="D89" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="7"/>
+      <c r="O89" s="7"/>
+      <c r="P89" s="7"/>
+      <c r="Q89" s="7"/>
+      <c r="R89" s="7"/>
+      <c r="S89" s="7"/>
+      <c r="T89" s="7"/>
+      <c r="U89" s="7"/>
+      <c r="V89" s="7"/>
+      <c r="W89" s="7"/>
+      <c r="X89" s="7"/>
+      <c r="Y89" s="7"/>
+      <c r="Z89" s="7"/>
+      <c r="AA89" s="7"/>
+      <c r="AB89" s="7"/>
+      <c r="AC89" s="7"/>
+      <c r="AD89" s="7"/>
+      <c r="AE89" s="7"/>
+      <c r="AF89" s="7"/>
+    </row>
+    <row r="90" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A90" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>246</v>
+      </c>
       <c r="C90" s="7"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="4"/>
-      <c r="N90" s="4"/>
-      <c r="O90" s="4"/>
-      <c r="P90" s="4"/>
-      <c r="Q90" s="4"/>
-      <c r="R90" s="4"/>
-      <c r="S90" s="4"/>
-      <c r="T90" s="4"/>
-      <c r="U90" s="4"/>
-      <c r="V90" s="4"/>
-      <c r="W90" s="4"/>
-      <c r="X90" s="4"/>
-      <c r="Y90" s="4"/>
-      <c r="Z90" s="4"/>
-      <c r="AA90" s="4"/>
-      <c r="AB90" s="4"/>
-      <c r="AC90" s="4"/>
-      <c r="AD90" s="4"/>
-      <c r="AE90" s="4"/>
-      <c r="AF90" s="4"/>
-    </row>
-    <row r="91" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
+      <c r="D90" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
+      <c r="O90" s="7"/>
+      <c r="P90" s="7"/>
+      <c r="Q90" s="7"/>
+      <c r="R90" s="7"/>
+      <c r="S90" s="7"/>
+      <c r="T90" s="7"/>
+      <c r="U90" s="7"/>
+      <c r="V90" s="7"/>
+      <c r="W90" s="7"/>
+      <c r="X90" s="7"/>
+      <c r="Y90" s="7"/>
+      <c r="Z90" s="7"/>
+      <c r="AA90" s="7"/>
+      <c r="AB90" s="7"/>
+      <c r="AC90" s="7"/>
+      <c r="AD90" s="7"/>
+      <c r="AE90" s="7"/>
+      <c r="AF90" s="7"/>
+    </row>
+    <row r="91" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A91" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>253</v>
+      </c>
       <c r="C91" s="7"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
-      <c r="M91" s="4"/>
-      <c r="N91" s="4"/>
-      <c r="O91" s="4"/>
-      <c r="P91" s="4"/>
-      <c r="Q91" s="4"/>
-      <c r="R91" s="4"/>
-      <c r="S91" s="4"/>
-      <c r="T91" s="4"/>
-      <c r="U91" s="4"/>
-      <c r="V91" s="4"/>
-      <c r="W91" s="4"/>
-      <c r="X91" s="4"/>
-      <c r="Y91" s="4"/>
-      <c r="Z91" s="4"/>
-      <c r="AA91" s="4"/>
-      <c r="AB91" s="4"/>
-      <c r="AC91" s="4"/>
-      <c r="AD91" s="4"/>
-      <c r="AE91" s="4"/>
-      <c r="AF91" s="4"/>
-    </row>
-    <row r="92" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
-      <c r="M92" s="4"/>
-      <c r="N92" s="4"/>
-      <c r="O92" s="4"/>
-      <c r="P92" s="4"/>
-      <c r="Q92" s="4"/>
-      <c r="R92" s="4"/>
-      <c r="S92" s="4"/>
-      <c r="T92" s="4"/>
-      <c r="U92" s="4"/>
-      <c r="V92" s="4"/>
-      <c r="W92" s="4"/>
-      <c r="X92" s="4"/>
-      <c r="Y92" s="4"/>
-      <c r="Z92" s="4"/>
-      <c r="AA92" s="4"/>
-      <c r="AB92" s="4"/>
-      <c r="AC92" s="4"/>
-      <c r="AD92" s="4"/>
-      <c r="AE92" s="4"/>
-      <c r="AF92" s="4"/>
-    </row>
-    <row r="93" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
-      <c r="N93" s="4"/>
-      <c r="O93" s="4"/>
-      <c r="P93" s="4"/>
-      <c r="Q93" s="4"/>
-      <c r="R93" s="4"/>
-      <c r="S93" s="4"/>
-      <c r="T93" s="4"/>
-      <c r="U93" s="4"/>
-      <c r="V93" s="4"/>
-      <c r="W93" s="4"/>
-      <c r="X93" s="4"/>
-      <c r="Y93" s="4"/>
-      <c r="Z93" s="4"/>
-      <c r="AA93" s="4"/>
-      <c r="AB93" s="4"/>
-      <c r="AC93" s="4"/>
-      <c r="AD93" s="4"/>
-      <c r="AE93" s="4"/>
-      <c r="AF93" s="4"/>
+      <c r="D91" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F91" s="8">
+        <v>439</v>
+      </c>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="7"/>
+      <c r="O91" s="7"/>
+      <c r="P91" s="7"/>
+      <c r="Q91" s="7"/>
+      <c r="R91" s="7"/>
+      <c r="S91" s="7"/>
+      <c r="T91" s="7"/>
+      <c r="U91" s="7"/>
+      <c r="V91" s="7"/>
+      <c r="W91" s="7"/>
+      <c r="X91" s="7"/>
+      <c r="Y91" s="7"/>
+      <c r="Z91" s="7"/>
+      <c r="AA91" s="7"/>
+      <c r="AB91" s="7"/>
+      <c r="AC91" s="7"/>
+      <c r="AD91" s="7"/>
+      <c r="AE91" s="7"/>
+      <c r="AF91" s="7"/>
+    </row>
+    <row r="92" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A92" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7"/>
+      <c r="O92" s="7"/>
+      <c r="P92" s="7"/>
+      <c r="Q92" s="7"/>
+      <c r="R92" s="7"/>
+      <c r="S92" s="7"/>
+      <c r="T92" s="7"/>
+      <c r="U92" s="7"/>
+      <c r="V92" s="7"/>
+      <c r="W92" s="7"/>
+      <c r="X92" s="7"/>
+      <c r="Y92" s="7"/>
+      <c r="Z92" s="7"/>
+      <c r="AA92" s="7"/>
+      <c r="AB92" s="7"/>
+      <c r="AC92" s="7"/>
+      <c r="AD92" s="7"/>
+      <c r="AE92" s="7"/>
+      <c r="AF92" s="7"/>
+    </row>
+    <row r="93" spans="1:32" ht="26" x14ac:dyDescent="0.15">
+      <c r="A93" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7"/>
+      <c r="O93" s="7"/>
+      <c r="P93" s="7"/>
+      <c r="Q93" s="7"/>
+      <c r="R93" s="7"/>
+      <c r="S93" s="7"/>
+      <c r="T93" s="7"/>
+      <c r="U93" s="7"/>
+      <c r="V93" s="7"/>
+      <c r="W93" s="7"/>
+      <c r="X93" s="7"/>
+      <c r="Y93" s="7"/>
+      <c r="Z93" s="7"/>
+      <c r="AA93" s="7"/>
+      <c r="AB93" s="7"/>
+      <c r="AC93" s="7"/>
+      <c r="AD93" s="7"/>
+      <c r="AE93" s="7"/>
+      <c r="AF93" s="7"/>
     </row>
     <row r="94" spans="1:32" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
